--- a/Assessment/data/OHRMTestData.xlsx
+++ b/Assessment/data/OHRMTestData.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OHRM_TestMappingMatrix" sheetId="1" r:id="rId1"/>
     <sheet name="OHRM_Login" sheetId="2" r:id="rId2"/>
+    <sheet name="OHRM_PIM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>TESTNAME</t>
   </si>
@@ -53,6 +54,18 @@
   </si>
   <si>
     <t>admin1234</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_LAST_NAME</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Anderson</t>
   </si>
 </sst>
 </file>
@@ -385,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -439,7 +452,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -485,4 +498,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>